--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A399E48-3A01-43F9-BB22-28FFD0F036EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB881B-C34D-4063-8BBF-B4A98E9127D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Stocks</t>
   </si>
@@ -267,6 +267,12 @@
   <si>
     <t>Based from the calculations provided by the Virutal Trading Platform</t>
   </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>BLOOM</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +314,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -361,12 +373,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,7 +380,15 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,18 +669,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
@@ -677,29 +691,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -742,13 +756,15 @@
       <c r="B3">
         <v>500</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>5053.1499999999996</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>4966.7299999999996</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="8">
+        <v>5006.4799999999996</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -765,13 +781,15 @@
       <c r="B4">
         <v>5000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>9929.2099999999991</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>10158.26</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -788,13 +806,15 @@
       <c r="B5">
         <v>500</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>15545.73</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>15187.84</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="8">
+        <v>15336.5</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -811,13 +831,15 @@
       <c r="B6">
         <v>500</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>7473.52</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>7332.09</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -834,13 +856,15 @@
       <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>5623.24</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>5523.28</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="14">
+        <v>5473.22</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -857,13 +881,15 @@
       <c r="B8">
         <v>50</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>6773.41</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>6691.06</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -883,10 +909,12 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>32595.88</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="8">
+        <v>31961.360000000001</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -906,10 +934,12 @@
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>2747.81</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="8">
+        <v>2710.69</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -919,100 +949,145 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>14191.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>500</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4643.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C20" s="4">
         <v>49601.74</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D20" s="4">
         <v>43962.75</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="E20" s="4">
+        <v>80142.95</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C21" s="4">
         <v>50398.26</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D21" s="4">
         <v>55049.53</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="E21" s="4">
+        <v>18592.54</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4">
-        <f>SUM(C17,C18)</f>
+      <c r="C22" s="4">
+        <f>SUM(C20,C21)</f>
         <v>100000</v>
       </c>
-      <c r="D19" s="4">
-        <f>SUM(D17,D18)</f>
+      <c r="D22" s="4">
+        <f>SUM(D20,D21)</f>
         <v>99012.28</v>
       </c>
+      <c r="E22" s="4">
+        <f>SUM(E20:E21)</f>
+        <v>98735.489999999991</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB881B-C34D-4063-8BBF-B4A98E9127D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3FEA88-2E2C-4D44-BEC6-B6EFC1B87442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Stocks</t>
   </si>
@@ -272,6 +272,24 @@
   </si>
   <si>
     <t>BLOOM</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>JGS</t>
+  </si>
+  <si>
+    <t>BDO</t>
+  </si>
+  <si>
+    <t>FGEN</t>
   </si>
 </sst>
 </file>
@@ -363,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -381,6 +399,8 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,7 +408,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +701,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
@@ -691,29 +710,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -765,9 +784,15 @@
       <c r="E3" s="8">
         <v>5006.4799999999996</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -790,9 +815,15 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>10079.65</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9960.0499999999993</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -815,9 +846,15 @@
       <c r="E5" s="8">
         <v>15336.5</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>15345.14</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -840,9 +877,15 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="5">
+        <v>7343.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7103.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7053.45</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -862,12 +905,18 @@
       <c r="D7" s="8">
         <v>5523.28</v>
       </c>
-      <c r="E7" s="14">
-        <v>5473.22</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="E7" s="11">
+        <v>5428.21</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5344.39</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5394.08</v>
+      </c>
+      <c r="H7" s="8">
+        <v>6964.37</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -890,9 +939,15 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7173.47</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -915,9 +970,15 @@
       <c r="E9" s="8">
         <v>31961.360000000001</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="5">
+        <v>32144.55</v>
+      </c>
+      <c r="G9" s="7">
+        <v>31242.85</v>
+      </c>
+      <c r="H9" s="7">
+        <v>30920.76</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -940,9 +1001,15 @@
       <c r="E10" s="8">
         <v>2710.69</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2722.81</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -956,15 +1023,29 @@
       <c r="B11">
         <v>500</v>
       </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11" s="5">
         <v>14191.74</v>
       </c>
+      <c r="F11" s="8">
+        <v>13949.03</v>
+      </c>
+      <c r="G11" s="5">
+        <v>13379.18</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13106.64</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -973,121 +1054,365 @@
       <c r="B12">
         <v>500</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="5">
         <v>4643.09</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="F12" s="7">
+        <v>4479.74</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4469.8</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4469.8</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>5000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>21011.8</v>
+      </c>
+      <c r="G13" s="7">
+        <v>20167.87</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20019.21</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="12">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>32094.400000000001</v>
+      </c>
+      <c r="H14" s="8">
+        <v>32605.55</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>45132.75</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45092.78</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="12">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>6233.33</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="12">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2572.7800000000002</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12">
+        <v>500</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8494.99</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4">
-        <v>49601.74</v>
-      </c>
-      <c r="D20" s="4">
-        <v>43962.75</v>
-      </c>
-      <c r="E20" s="4">
-        <v>80142.95</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4">
-        <v>50398.26</v>
-      </c>
-      <c r="D21" s="4">
-        <v>55049.53</v>
-      </c>
-      <c r="E21" s="4">
-        <v>18592.54</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="4">
-        <f>SUM(C20,C21)</f>
-        <v>100000</v>
-      </c>
-      <c r="D22" s="4">
-        <f>SUM(D20,D21)</f>
-        <v>99012.28</v>
-      </c>
-      <c r="E22" s="4">
-        <f>SUM(E20:E21)</f>
-        <v>98735.489999999991</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4">
+        <f>49601.74+100000</f>
+        <v>149601.74</v>
+      </c>
+      <c r="D25" s="4">
+        <f>43962.75+100000</f>
+        <v>143962.75</v>
+      </c>
+      <c r="E25" s="4">
+        <f>80142.95+100000</f>
+        <v>180142.95</v>
+      </c>
+      <c r="F25" s="4">
+        <f>28163.92+100000</f>
+        <v>128163.92</v>
+      </c>
+      <c r="G25" s="4">
+        <f>22772.85+4544.45</f>
+        <v>27317.3</v>
+      </c>
+      <c r="H25" s="4">
+        <f>12835.88+9948.82</f>
+        <v>22784.699999999997</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4">
+        <f>50398.26</f>
+        <v>50398.26</v>
+      </c>
+      <c r="D26" s="4">
+        <f>55049.53</f>
+        <v>55049.53</v>
+      </c>
+      <c r="E26" s="4">
+        <v>18592.54</v>
+      </c>
+      <c r="F26" s="4">
+        <v>69602.36</v>
+      </c>
+      <c r="G26" s="4">
+        <f>91717.34+76310.85</f>
+        <v>168028.19</v>
+      </c>
+      <c r="H26" s="4">
+        <f>85440.83+87055.98</f>
+        <v>172496.81</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUM(C25,C26)</f>
+        <v>200000</v>
+      </c>
+      <c r="D27" s="4">
+        <f>SUM(D25,D26)</f>
+        <v>199012.28</v>
+      </c>
+      <c r="E27" s="4">
+        <f>SUM(E25:E26)</f>
+        <v>198735.49000000002</v>
+      </c>
+      <c r="F27" s="4">
+        <f>SUM(F25:F26)</f>
+        <v>197766.28</v>
+      </c>
+      <c r="G27" s="4">
+        <f>SUM(G25:G26)</f>
+        <v>195345.49</v>
+      </c>
+      <c r="H27" s="4">
+        <f>SUM(H25:H26)</f>
+        <v>195281.51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3FEA88-2E2C-4D44-BEC6-B6EFC1B87442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56AFAE0-1627-4073-8A90-FB20BCFDF37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Stocks</t>
   </si>
@@ -290,6 +290,18 @@
   </si>
   <si>
     <t>FGEN</t>
+  </si>
+  <si>
+    <t>PSEI</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>AP</t>
   </si>
 </sst>
 </file>
@@ -343,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +380,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -381,12 +399,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -401,13 +418,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +723,7 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
@@ -710,29 +731,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -775,29 +796,33 @@
       <c r="B3">
         <v>500</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5053.1499999999996</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>4966.7299999999996</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>5006.4799999999996</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5083.16</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4986.6000000000004</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -806,29 +831,33 @@
       <c r="B4">
         <v>5000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>9929.2099999999991</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>10158.26</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>10079.65</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>9960.0499999999993</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="13">
+        <v>10009.61</v>
+      </c>
+      <c r="J4" s="6">
+        <v>9712.2900000000009</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -837,29 +866,33 @@
       <c r="B5">
         <v>500</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>15545.73</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>15187.84</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>15336.5</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>15345.14</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="I5" s="13">
+        <v>14890.53</v>
+      </c>
+      <c r="J5" s="6">
+        <v>15063.96</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -868,29 +901,33 @@
       <c r="B6">
         <v>500</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>7473.52</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>7332.09</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>7343.5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>7103.5</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>7053.45</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="I6" s="13">
+        <v>7133.32</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6914.67</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -899,29 +936,33 @@
       <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>5623.24</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>5523.28</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>5428.21</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>5344.39</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>5394.08</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>6964.37</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -930,29 +971,33 @@
       <c r="B8">
         <v>50</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>6773.41</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>6691.06</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>7173.47</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="I8" s="13">
+        <v>7009.09</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6924.61</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -961,29 +1006,33 @@
       <c r="B9">
         <v>50</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>32595.88</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>31961.360000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>32144.55</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>31242.85</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>30920.76</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="I9" s="13">
+        <v>30722.55</v>
+      </c>
+      <c r="J9" s="6">
+        <v>29979.26</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -992,29 +1041,33 @@
       <c r="B10">
         <v>50</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>2747.81</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>2710.69</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>2722.81</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="I10" s="13">
+        <v>2661</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2603.85</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1023,29 +1076,33 @@
       <c r="B11">
         <v>500</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>14191.74</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>13949.03</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>13379.18</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>13106.64</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="I11" s="13">
+        <v>13057.08</v>
+      </c>
+      <c r="J11" s="6">
+        <v>13032.31</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1054,29 +1111,33 @@
       <c r="B12">
         <v>500</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <v>4643.09</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>4479.74</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>4469.8</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>4469.8</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="I12" s="15">
+        <v>4499.62</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4473.07</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1085,334 +1146,508 @@
       <c r="B13">
         <v>5000</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>21011.8</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>20167.87</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>20019.21</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="I13" s="13">
+        <v>30722.55</v>
+      </c>
+      <c r="J13" s="6">
+        <v>19821</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>25</v>
       </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
         <v>32094.400000000001</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>32605.55</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="I14" s="10">
+        <v>32044.25</v>
+      </c>
+      <c r="J14" s="15">
+        <v>31664.05</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>25</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <v>45132.75</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>45092.78</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="I15" s="13">
+        <v>44597.25</v>
+      </c>
+      <c r="J15" s="6">
+        <v>44027.4</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>50</v>
       </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <v>6233.33</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="I16" s="13">
+        <v>6040.09</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5910.88</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>50</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <v>2572.7800000000002</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="I17" s="13">
+        <v>2492.04</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2377.75</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>500</v>
       </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <v>8494.99</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+      <c r="I18" s="13">
+        <v>8374.3700000000008</v>
+      </c>
+      <c r="J18" s="6">
+        <v>8275.27</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="11">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>10400.59</v>
+      </c>
+      <c r="J19" s="6">
+        <v>9905.5400000000009</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="11">
+        <v>500</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>18078.169999999998</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>15194.69</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4">
-        <f>49601.74+100000</f>
-        <v>149601.74</v>
-      </c>
-      <c r="D25" s="4">
-        <f>43962.75+100000</f>
-        <v>143962.75</v>
-      </c>
-      <c r="E25" s="4">
-        <f>80142.95+100000</f>
-        <v>180142.95</v>
-      </c>
-      <c r="F25" s="4">
-        <f>28163.92+100000</f>
-        <v>128163.92</v>
-      </c>
-      <c r="G25" s="4">
-        <f>22772.85+4544.45</f>
-        <v>27317.3</v>
-      </c>
-      <c r="H25" s="4">
-        <f>12835.88+9948.82</f>
-        <v>22784.699999999997</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="C28" s="3">
+        <f>49601.74+200000</f>
+        <v>249601.74</v>
+      </c>
+      <c r="D28" s="3">
+        <f>43962.75+200000</f>
+        <v>243962.75</v>
+      </c>
+      <c r="E28" s="3">
+        <f>80142.95+200000</f>
+        <v>280142.95</v>
+      </c>
+      <c r="F28" s="3">
+        <f>28163.92+200000</f>
+        <v>228163.91999999998</v>
+      </c>
+      <c r="G28" s="3">
+        <f>22772.85+4544.45+100000</f>
+        <v>127317.3</v>
+      </c>
+      <c r="H28" s="3">
+        <f>12835.88+9948.82+100000</f>
+        <v>122784.7</v>
+      </c>
+      <c r="I28" s="3">
+        <f>9365.28+2435.29+67955.75</f>
+        <v>79756.320000000007</v>
+      </c>
+      <c r="J28" s="3">
+        <f>61873.86+9365.28+2435.29</f>
+        <v>73674.429999999993</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C29" s="3">
         <f>50398.26</f>
         <v>50398.26</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D29" s="3">
         <f>55049.53</f>
         <v>55049.53</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E29" s="3">
         <v>18592.54</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F29" s="3">
         <v>69602.36</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G29" s="3">
         <f>91717.34+76310.85</f>
         <v>168028.19</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H29" s="3">
         <f>85440.83+87055.98</f>
         <v>172496.81</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="I29" s="3">
+        <f>86394.22+96341.55+31664.05</f>
+        <v>214399.82</v>
+      </c>
+      <c r="J29" s="3">
+        <f>37278.32+84446.14+95089.26</f>
+        <v>216813.71999999997</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="4">
-        <f>SUM(C25,C26)</f>
-        <v>200000</v>
-      </c>
-      <c r="D27" s="4">
-        <f>SUM(D25,D26)</f>
-        <v>199012.28</v>
-      </c>
-      <c r="E27" s="4">
-        <f>SUM(E25:E26)</f>
-        <v>198735.49000000002</v>
-      </c>
-      <c r="F27" s="4">
-        <f>SUM(F25:F26)</f>
-        <v>197766.28</v>
-      </c>
-      <c r="G27" s="4">
-        <f>SUM(G25:G26)</f>
-        <v>195345.49</v>
-      </c>
-      <c r="H27" s="4">
-        <f>SUM(H25:H26)</f>
-        <v>195281.51</v>
-      </c>
+      <c r="C30" s="3">
+        <f>SUM(C28,C29)</f>
+        <v>300000</v>
+      </c>
+      <c r="D30" s="3">
+        <f>SUM(D28,D29)</f>
+        <v>299012.28000000003</v>
+      </c>
+      <c r="E30" s="3">
+        <f>SUM(E28:E29)</f>
+        <v>298735.49</v>
+      </c>
+      <c r="F30" s="3">
+        <f>SUM(F28:F29)</f>
+        <v>297766.27999999997</v>
+      </c>
+      <c r="G30" s="3">
+        <f>SUM(G28:G29)</f>
+        <v>295345.49</v>
+      </c>
+      <c r="H30" s="3">
+        <f>SUM(H28:H29)</f>
+        <v>295281.51</v>
+      </c>
+      <c r="I30" s="3">
+        <f>SUM(I28:I29)</f>
+        <v>294156.14</v>
+      </c>
+      <c r="J30" s="3">
+        <f>SUM(J28:J29)</f>
+        <v>290488.14999999997</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56AFAE0-1627-4073-8A90-FB20BCFDF37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCDB7B1-3971-400C-A60D-948A0171B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20385" yWindow="-4710" windowWidth="23790" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Stocks</t>
   </si>
@@ -399,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,7 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,11 +719,12 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
@@ -820,8 +820,12 @@
       <c r="J3" s="6">
         <v>4986.6000000000004</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="6">
+        <v>5006.4799999999996</v>
+      </c>
+      <c r="L3" s="6">
+        <v>5083.16</v>
+      </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -855,8 +859,12 @@
       <c r="J4" s="6">
         <v>9712.2900000000009</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="6">
+        <v>9712.2900000000009</v>
+      </c>
+      <c r="L4" s="6">
+        <v>10079.65</v>
+      </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -890,8 +898,12 @@
       <c r="J5" s="6">
         <v>15063.96</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="7">
+        <v>15336.5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -925,8 +937,12 @@
       <c r="J6" s="6">
         <v>6914.67</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="6">
+        <v>6735.78</v>
+      </c>
+      <c r="L6" s="6">
+        <v>7053.45</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -960,8 +976,12 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -995,8 +1015,12 @@
       <c r="J8" s="6">
         <v>6924.61</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="6">
+        <v>7004.12</v>
+      </c>
+      <c r="L8" s="7">
+        <v>6974.3</v>
+      </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1030,8 +1054,12 @@
       <c r="J9" s="6">
         <v>29979.26</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="6">
+        <v>30276.58</v>
+      </c>
+      <c r="L9" s="7">
+        <v>30920.76</v>
+      </c>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1065,8 +1093,12 @@
       <c r="J10" s="6">
         <v>2603.85</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="6">
+        <v>2593.91</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2648.57</v>
+      </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1100,8 +1132,12 @@
       <c r="J11" s="6">
         <v>13032.31</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="7">
+        <v>13131.41</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1135,8 +1171,12 @@
       <c r="J12" s="4">
         <v>4473.07</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="7">
+        <v>4449.93</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4443.0600000000004</v>
+      </c>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1170,8 +1210,12 @@
       <c r="J13" s="6">
         <v>19821</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="6">
+        <v>19028.16</v>
+      </c>
+      <c r="L13" s="6">
+        <v>21011.8</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,8 +1249,12 @@
       <c r="J14" s="15">
         <v>31664.05</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1240,8 +1288,12 @@
       <c r="J15" s="6">
         <v>44027.4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="6">
+        <v>43556.65</v>
+      </c>
+      <c r="L15" s="6">
+        <v>42862.91</v>
+      </c>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,8 +1327,12 @@
       <c r="J16" s="6">
         <v>5910.88</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="7">
+        <v>6154.38</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1310,8 +1366,12 @@
       <c r="J17" s="6">
         <v>2377.75</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="7">
+        <v>2511.92</v>
+      </c>
+      <c r="L17" s="4">
+        <v>24572.28</v>
+      </c>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,8 +1405,12 @@
       <c r="J18" s="6">
         <v>8275.27</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="6">
+        <v>8166.25</v>
+      </c>
+      <c r="L18" s="6">
+        <v>7838.95</v>
+      </c>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1380,8 +1444,12 @@
       <c r="J19" s="6">
         <v>9905.5400000000009</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="6">
+        <v>9796.5300000000007</v>
+      </c>
+      <c r="L19" s="6">
+        <v>9811.4</v>
+      </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,14 +1477,18 @@
       <c r="H20" s="14">
         <v>0</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="12">
         <v>0</v>
       </c>
       <c r="J20" s="4">
         <v>18078.169999999998</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="6">
+        <v>18582.189999999999</v>
+      </c>
+      <c r="L20" s="6">
+        <v>18086.66</v>
+      </c>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1442,14 +1514,18 @@
       <c r="H21" s="14">
         <v>0</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="12">
         <v>0</v>
       </c>
       <c r="J21" s="4">
         <v>15194.69</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="K21" s="6">
+        <v>15618.95</v>
+      </c>
+      <c r="L21" s="6">
+        <v>15460.38</v>
+      </c>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1467,8 +1543,12 @@
       <c r="J22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -1548,8 +1628,14 @@
         <f>61873.86+9365.28+2435.29</f>
         <v>73674.429999999993</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="K28" s="3">
+        <f>22496.7+26438.08+66323.79</f>
+        <v>115258.56999999999</v>
+      </c>
+      <c r="L28" s="3">
+        <f>36060.96+66323.79+24402.12</f>
+        <v>126786.87</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1593,8 +1679,14 @@
         <f>37278.32+84446.14+95089.26</f>
         <v>216813.71999999997</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="K29" s="3">
+        <f>70759.29+71117.46+34201.14</f>
+        <v>176077.89</v>
+      </c>
+      <c r="L29" s="3">
+        <f>33547.04+60513.26+68330.65</f>
+        <v>162390.95000000001</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -1616,31 +1708,37 @@
         <v>299012.28000000003</v>
       </c>
       <c r="E30" s="3">
-        <f>SUM(E28:E29)</f>
+        <f t="shared" ref="E30:J30" si="0">SUM(E28:E29)</f>
         <v>298735.49</v>
       </c>
       <c r="F30" s="3">
-        <f>SUM(F28:F29)</f>
+        <f t="shared" si="0"/>
         <v>297766.27999999997</v>
       </c>
       <c r="G30" s="3">
-        <f>SUM(G28:G29)</f>
+        <f t="shared" si="0"/>
         <v>295345.49</v>
       </c>
       <c r="H30" s="3">
-        <f>SUM(H28:H29)</f>
+        <f t="shared" si="0"/>
         <v>295281.51</v>
       </c>
       <c r="I30" s="3">
-        <f>SUM(I28:I29)</f>
+        <f t="shared" si="0"/>
         <v>294156.14</v>
       </c>
       <c r="J30" s="3">
-        <f>SUM(J28:J29)</f>
+        <f t="shared" si="0"/>
         <v>290488.14999999997</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="K30" s="3">
+        <f>SUM(K28:K29)</f>
+        <v>291336.46000000002</v>
+      </c>
+      <c r="L30" s="3">
+        <f>SUM(L28:L29)</f>
+        <v>289177.82</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED8EA9D-2216-40DF-B76C-FB97D238C7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A08C94A-B5B5-474C-B866-35F36CDD6BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4830" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Stocks</t>
   </si>
   <si>
     <t>Dates</t>
-  </si>
-  <si>
-    <t>Number of Shares</t>
   </si>
   <si>
     <t>LTG</t>
@@ -315,9 +312,6 @@
     <t>Bought</t>
   </si>
   <si>
-    <t>Hold</t>
-  </si>
-  <si>
     <t>Initial</t>
   </si>
   <si>
@@ -331,6 +325,10 @@
   </si>
   <si>
     <t>Gain (%)</t>
+  </si>
+  <si>
+    <t>Baseline
+(PSEI)</t>
   </si>
 </sst>
 </file>
@@ -339,7 +337,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -386,18 +384,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -424,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -435,37 +427,34 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,496 +758,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="19">
-        <v>5000</v>
-      </c>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13"/>
       <c r="C3" s="6">
         <v>10380.530000000001</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="D3" s="20">
+        <v>9910.5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="19">
-        <v>50</v>
-      </c>
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="6">
         <v>2645.29</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="D4" s="19">
+        <v>2572.7800000000002</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="19">
+        <v>6348.35</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="19">
-        <v>500</v>
-      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="6">
         <v>8174.04</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="D6" s="20">
+        <v>8146.43</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="19">
-        <v>500</v>
-      </c>
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="6">
         <v>14292.04</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="D8" s="19">
+        <v>14292.04</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="19">
+        <v>5303.19</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="19">
-        <v>25</v>
-      </c>
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="6">
         <v>33849.56</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="D10" s="20">
+        <v>32977.19</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="19">
-        <v>25</v>
-      </c>
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="6">
         <v>46386.44</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="D11" s="19">
+        <v>45659.3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="19">
+        <v>4573.08</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="19">
+        <v>14943.96</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="19">
-        <v>50</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="6">
         <v>33398.239999999998</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="D15" s="19">
+        <v>33348.089999999997</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="19">
-        <v>500</v>
-      </c>
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="6">
         <v>16398.23</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="D16" s="20">
+        <v>16203.67</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="19">
-        <v>500</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="6">
         <v>5018.1499999999996</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="D17" s="20">
+        <v>4966.7299999999996</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="19">
-        <v>5000</v>
-      </c>
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="6">
         <v>18203.54</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="D18" s="20">
+        <v>18185.77</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="19">
-        <v>500</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="13"/>
       <c r="C19" s="6">
         <v>18429.21</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="D19" s="20">
+        <v>18379.060000000001</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="19">
-        <v>50</v>
-      </c>
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="6">
         <v>7363.5</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="D21" s="20">
+        <v>7262.52</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
@@ -1267,19 +1240,21 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3">
         <v>785461.23</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>737694.19</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1299,12 +1274,14 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3">
         <v>211942.93</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>256508.16</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1323,13 +1300,16 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="3">
         <f>SUM(C28:C29)</f>
         <v>997404.15999999992</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <f>SUM(D28:D29)</f>
+        <v>994202.35</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1347,76 +1327,85 @@
       <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="21">
+      <c r="C31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="15">
         <f>((D30-C30)/(C30))*100</f>
+        <v>-0.32101430176508783</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" ref="E31:M31" si="0">((E30-D30)/(D30))*100</f>
         <v>-100</v>
       </c>
-      <c r="E31" s="21" t="e">
-        <f t="shared" ref="E31:M31" si="0">((E30-D30)/(D30))*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="21" t="e">
+      <c r="F31" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="21" t="e">
+      <c r="G31" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="22" t="e">
+      <c r="H31" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="21" t="e">
+      <c r="I31" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="21" t="e">
+      <c r="J31" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="21" t="e">
+      <c r="K31" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="21" t="e">
+      <c r="L31" s="15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="22" t="e">
+      <c r="M31" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="21">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>41</v>
+      <c r="C36" s="12">
+        <v>1000000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
         <v>42</v>
-      </c>
-      <c r="C37" s="18">
-        <v>1000000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1424,15 +1413,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A08C94A-B5B5-474C-B866-35F36CDD6BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726956E-0D3C-4D60-882F-9F689E3EB0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34785" yWindow="-4710" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Stocks</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>FGEN</t>
-  </si>
-  <si>
-    <t>PSEI</t>
   </si>
   <si>
     <t>ICT</t>
@@ -339,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +380,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFF7F9F9"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -416,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -446,15 +449,22 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,59 +768,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -822,10 +832,12 @@
       <c r="C3" s="6">
         <v>10380.530000000001</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>9910.5</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="17">
+        <v>10079.65</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -843,10 +855,12 @@
       <c r="C4" s="6">
         <v>2645.29</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>2572.7800000000002</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="24">
+        <v>2501.98</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -862,10 +876,12 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>6348.35</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="17">
+        <v>6298.34</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -883,10 +899,12 @@
       <c r="C6" s="6">
         <v>8174.04</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>8146.43</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="17">
+        <v>8244.25</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -898,7 +916,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
@@ -921,10 +939,12 @@
       <c r="C8" s="6">
         <v>14292.04</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>14292.04</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="24">
+        <v>14097.69</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -940,10 +960,12 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>5303.19</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="17">
+        <v>5273.19</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -961,10 +983,12 @@
       <c r="C10" s="6">
         <v>33849.56</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>32977.19</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="17">
+        <v>34300.89</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -982,10 +1006,12 @@
       <c r="C11" s="6">
         <v>46386.44</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>45659.3</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="24">
+        <v>45836.06</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1001,10 +1027,12 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>4573.08</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="24">
+        <v>4574.16</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1033,14 +1061,16 @@
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>14943.96</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="17">
+        <v>15365.19</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1058,10 +1088,12 @@
       <c r="C15" s="6">
         <v>33398.239999999998</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>33348.089999999997</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="24">
+        <v>32977.19</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1079,10 +1111,12 @@
       <c r="C16" s="6">
         <v>16398.23</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>16203.67</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="17">
+        <v>16548.68</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1100,10 +1134,10 @@
       <c r="C17" s="6">
         <v>5018.1499999999996</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>4966.7299999999996</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1121,10 +1155,12 @@
       <c r="C18" s="6">
         <v>18203.54</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="18">
         <v>18185.77</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="17">
+        <v>19156.349999999999</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1136,16 +1172,16 @@
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="6">
         <v>18429.21</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <v>18379.060000000001</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1180,7 +1216,7 @@
       <c r="C21" s="6">
         <v>7363.5</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <v>7262.52</v>
       </c>
       <c r="E21" s="3"/>
@@ -1194,12 +1230,10 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1255,7 +1289,9 @@
       <c r="D28" s="3">
         <v>737694.19</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>722414.73</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1282,7 +1318,9 @@
       <c r="D29" s="3">
         <v>256508.16</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>272672.12</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1310,7 +1348,10 @@
         <f>SUM(D28:D29)</f>
         <v>994202.35</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3">
+        <f>SUM(E28:E29)</f>
+        <v>995086.85</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1328,7 +1369,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="15">
         <f>((D30-C30)/(C30))*100</f>
@@ -1336,11 +1377,11 @@
       </c>
       <c r="E31" s="15">
         <f t="shared" ref="E31:M31" si="0">((E30-D30)/(D30))*100</f>
+        <v>8.8965792527044424E-2</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="0"/>
         <v>-100</v>
-      </c>
-      <c r="F31" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G31" s="15" t="e">
         <f t="shared" si="0"/>
@@ -1373,47 +1414,53 @@
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="19">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="E32" s="19">
+        <v>-1.06E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="25">
+        <v>165565.73000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="21">
-        <v>-1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>40</v>
       </c>
       <c r="C36" s="12">
         <v>1000000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726956E-0D3C-4D60-882F-9F689E3EB0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE756C-0945-434C-AD31-BC9F5D05D25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34785" yWindow="-4710" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4830" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Stocks</t>
   </si>
@@ -309,18 +309,6 @@
     <t>Bought</t>
   </si>
   <si>
-    <t>Initial</t>
-  </si>
-  <si>
-    <t>Ending (Week1)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Ending (Week2)</t>
-  </si>
-  <si>
     <t>Gain (%)</t>
   </si>
   <si>
@@ -332,9 +320,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -451,20 +441,20 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,27 +758,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
@@ -838,7 +828,9 @@
       <c r="E3" s="17">
         <v>10079.65</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="18">
+        <v>9960.0499999999993</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="7"/>
@@ -858,10 +850,12 @@
       <c r="D4" s="17">
         <v>2572.7800000000002</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="19">
         <v>2501.98</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="18">
+        <v>2586.46</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7"/>
@@ -882,7 +876,9 @@
       <c r="E5" s="17">
         <v>6298.34</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="18">
+        <v>6363.09</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
@@ -905,7 +901,9 @@
       <c r="E6" s="17">
         <v>8244.25</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="18">
+        <v>8106.79</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="7"/>
@@ -942,12 +940,18 @@
       <c r="D8" s="17">
         <v>14292.04</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="19">
         <v>14097.69</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="18">
+        <v>14320.67</v>
+      </c>
+      <c r="G8" s="17">
+        <v>14292.04</v>
+      </c>
+      <c r="H8" s="18">
+        <v>13131.41</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -966,7 +970,9 @@
       <c r="E9" s="17">
         <v>5273.19</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="18">
+        <v>5195.3100000000004</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="7"/>
@@ -989,9 +995,13 @@
       <c r="E10" s="17">
         <v>34300.89</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="18">
+        <v>34191.230000000003</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="17">
+        <v>35604.730000000003</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1009,10 +1019,12 @@
       <c r="D11" s="17">
         <v>45659.3</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="19">
         <v>45836.06</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="18">
+        <v>45687.41</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="7"/>
@@ -1030,7 +1042,7 @@
       <c r="D12" s="17">
         <v>4573.08</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="19">
         <v>4574.16</v>
       </c>
       <c r="F12" s="3"/>
@@ -1071,7 +1083,9 @@
       <c r="E14" s="17">
         <v>15365.19</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="18">
+        <v>15014.41</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="7"/>
@@ -1091,10 +1105,12 @@
       <c r="D15" s="17">
         <v>33348.089999999997</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="19">
         <v>32977.19</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="18">
+        <v>32655.1</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="7"/>
@@ -1117,9 +1133,13 @@
       <c r="E16" s="17">
         <v>16548.68</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="18">
+        <v>16352.33</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="17">
+        <v>15696.17</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1137,10 +1157,17 @@
       <c r="D17" s="18">
         <v>4966.7299999999996</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="17">
+        <f>4983.14*2</f>
+        <v>9966.2800000000007</v>
+      </c>
+      <c r="G17" s="18">
+        <v>4922</v>
+      </c>
+      <c r="H17" s="17">
+        <v>4973.1400000000003</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1161,9 +1188,13 @@
       <c r="E18" s="17">
         <v>19156.349999999999</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="18">
+        <v>16352.33</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="17">
+        <v>18454.28</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1181,10 +1212,12 @@
       <c r="D19" s="18">
         <v>18379.060000000001</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="17">
+        <v>18654.87</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1199,8 +1232,12 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="17">
+        <v>2717.8</v>
+      </c>
+      <c r="G20" s="18">
+        <v>2661</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="7"/>
       <c r="J20" s="3"/>
@@ -1230,10 +1267,10 @@
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1292,9 +1329,15 @@
       <c r="E28" s="3">
         <v>722414.73</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="F28" s="3">
+        <v>937625.16</v>
+      </c>
+      <c r="G28" s="3">
+        <v>930916.12</v>
+      </c>
+      <c r="H28" s="3">
+        <v>850664.35</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1321,9 +1364,15 @@
       <c r="E29" s="3">
         <v>272672.12</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="F29" s="3">
+        <v>57444.03</v>
+      </c>
+      <c r="G29" s="3">
+        <v>64521.55</v>
+      </c>
+      <c r="H29" s="3">
+        <v>142674.59</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1352,9 +1401,18 @@
         <f>SUM(E28:E29)</f>
         <v>995086.85</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="F30" s="3">
+        <f>SUM(F28:F29)</f>
+        <v>995069.19000000006</v>
+      </c>
+      <c r="G30" s="3">
+        <f>SUM(G28:G29)</f>
+        <v>995437.67</v>
+      </c>
+      <c r="H30" s="3">
+        <f>SUM(H28:H29)</f>
+        <v>993338.94</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1369,31 +1427,31 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="15">
+        <v>39</v>
+      </c>
+      <c r="D31" s="21">
         <f>((D30-C30)/(C30))*100</f>
         <v>-0.32101430176508783</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="22">
         <f t="shared" ref="E31:M31" si="0">((E30-D30)/(D30))*100</f>
         <v>8.8965792527044424E-2</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="22">
+        <f>((F30-E30)/(E30))*100</f>
+        <v>-1.774719462920868E-3</v>
+      </c>
+      <c r="G31" s="22">
+        <f>((G30-F30)/(F30))*100</f>
+        <v>3.7030590807457457E-2</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.21083489838194469</v>
+      </c>
+      <c r="I31" s="15">
         <f t="shared" si="0"/>
         <v>-100</v>
-      </c>
-      <c r="G31" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="J31" s="15" t="e">
         <f t="shared" si="0"/>
@@ -1417,20 +1475,29 @@
         <v>36</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="19">
+        <v>40</v>
+      </c>
+      <c r="D32" s="23">
         <v>-1.29E-2</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="23">
         <v>-1.06E-2</v>
+      </c>
+      <c r="F32" s="23">
+        <v>-7.7000000000000002E-3</v>
+      </c>
+      <c r="G32" s="23">
+        <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="H32" s="26">
+        <v>-3.3399999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="20">
         <v>165565.73000000001</v>
       </c>
     </row>
@@ -1440,28 +1507,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
+      <c r="C36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE756C-0945-434C-AD31-BC9F5D05D25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149359BC-AB1C-47FC-9AF2-051E83CD363F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4830" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,13 +448,14 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,27 +759,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
@@ -1002,7 +1003,9 @@
       <c r="H10" s="17">
         <v>35604.730000000003</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="19">
+        <v>33125.85</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1088,7 +1091,9 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="6">
+        <v>15525.67</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1140,7 +1145,9 @@
       <c r="H16" s="17">
         <v>15696.17</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="19">
+        <v>16203.67</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1168,7 +1175,9 @@
       <c r="H17" s="17">
         <v>4973.1400000000003</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="27">
+        <v>4897.16</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1195,7 +1204,9 @@
       <c r="H18" s="17">
         <v>18454.28</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="19">
+        <v>18383.98</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1218,7 +1229,9 @@
       <c r="H19" s="17">
         <v>18654.87</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="19">
+        <v>18284.87</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1239,7 +1252,9 @@
         <v>2661</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="6">
+        <v>2740.31</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1338,7 +1353,9 @@
       <c r="H28" s="3">
         <v>850664.35</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>923293.89</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1373,7 +1390,9 @@
       <c r="H29" s="3">
         <v>142674.59</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <v>68225.960000000006</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1390,30 +1409,33 @@
         <v>11</v>
       </c>
       <c r="C30" s="3">
-        <f>SUM(C28:C29)</f>
+        <f t="shared" ref="C30:H30" si="0">SUM(C28:C29)</f>
         <v>997404.15999999992</v>
       </c>
       <c r="D30" s="3">
-        <f>SUM(D28:D29)</f>
+        <f t="shared" si="0"/>
         <v>994202.35</v>
       </c>
       <c r="E30" s="3">
-        <f>SUM(E28:E29)</f>
+        <f t="shared" si="0"/>
         <v>995086.85</v>
       </c>
       <c r="F30" s="3">
-        <f>SUM(F28:F29)</f>
+        <f t="shared" si="0"/>
         <v>995069.19000000006</v>
       </c>
       <c r="G30" s="3">
-        <f>SUM(G28:G29)</f>
+        <f t="shared" si="0"/>
         <v>995437.67</v>
       </c>
       <c r="H30" s="3">
-        <f>SUM(H28:H29)</f>
+        <f t="shared" si="0"/>
         <v>993338.94</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3">
+        <f>SUM(I28:I29)</f>
+        <v>991519.85</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1434,7 +1456,7 @@
         <v>-0.32101430176508783</v>
       </c>
       <c r="E31" s="22">
-        <f t="shared" ref="E31:M31" si="0">((E30-D30)/(D30))*100</f>
+        <f t="shared" ref="E31:M31" si="1">((E30-D30)/(D30))*100</f>
         <v>8.8965792527044424E-2</v>
       </c>
       <c r="F31" s="22">
@@ -1446,27 +1468,27 @@
         <v>3.7030590807457457E-2</v>
       </c>
       <c r="H31" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.21083489838194469</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>-0.1831288321386019</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="1"/>
         <v>-100</v>
       </c>
-      <c r="J31" s="15" t="e">
-        <f t="shared" si="0"/>
+      <c r="K31" s="15" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="15" t="e">
-        <f t="shared" si="0"/>
+      <c r="L31" s="15" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M31" s="16" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1489,8 +1511,11 @@
       <c r="G32" s="23">
         <v>-9.7999999999999997E-3</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="24">
         <v>-3.3399999999999999E-2</v>
+      </c>
+      <c r="I32" s="24">
+        <v>-7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149359BC-AB1C-47FC-9AF2-051E83CD363F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CDB2A2-7581-4DB0-9164-66979D741628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,13 +449,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,27 +759,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
@@ -860,7 +860,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="6">
+        <v>2585.2800000000002</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -883,7 +885,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="6">
+        <v>6273.34</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -908,7 +912,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="6">
+        <v>8274.34</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -954,7 +960,9 @@
         <v>13131.41</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="6">
+        <v>13715.34</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -977,7 +985,9 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="6">
+        <v>10530.98</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1052,7 +1062,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="6">
+        <v>4633.09</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1094,7 +1106,9 @@
       <c r="I14" s="6">
         <v>15525.67</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="6">
+        <v>15545.73</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1119,7 +1133,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="6">
+        <v>32646.02</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1148,7 +1164,9 @@
       <c r="I16" s="19">
         <v>16203.67</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="6">
+        <v>16548.68</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1175,10 +1193,12 @@
       <c r="H17" s="17">
         <v>4973.1400000000003</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="25">
         <v>4897.16</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="6">
+        <v>4968.1400000000003</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1207,7 +1227,9 @@
       <c r="I18" s="19">
         <v>18383.98</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="6">
+        <v>18454.28</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1255,7 +1277,9 @@
       <c r="I20" s="6">
         <v>2740.31</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="6">
+        <v>2722.81</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1276,7 +1300,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="6">
+        <v>7098.46</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1356,7 +1382,9 @@
       <c r="I28" s="3">
         <v>923293.89</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3">
+        <v>779077.5</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1393,7 +1421,9 @@
       <c r="I29" s="3">
         <v>68225.960000000006</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3">
+        <v>210295.97</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1436,7 +1466,10 @@
         <f>SUM(I28:I29)</f>
         <v>991519.85</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="3">
+        <f>SUM(J28:J29)</f>
+        <v>989373.47</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1477,11 +1510,11 @@
       </c>
       <c r="J31" s="15">
         <f t="shared" si="1"/>
+        <v>-0.21647372969890666</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="K31" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="L31" s="15" t="e">
         <f t="shared" si="1"/>
@@ -1516,6 +1549,9 @@
       </c>
       <c r="I32" s="24">
         <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="J32" s="23">
+        <v>-2.06E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CDB2A2-7581-4DB0-9164-66979D741628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF22EBF9-608D-46C2-B81C-2002677FD396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
@@ -863,7 +863,9 @@
       <c r="J4" s="6">
         <v>2585.2800000000002</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="18">
+        <v>2497.0100000000002</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
@@ -888,7 +890,9 @@
       <c r="J5" s="6">
         <v>6273.34</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="18">
+        <v>6149.41</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
@@ -915,7 +919,9 @@
       <c r="J6" s="6">
         <v>8274.34</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="18">
+        <v>8195.98</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
@@ -932,7 +938,9 @@
       <c r="H7" s="3"/>
       <c r="I7" s="7"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="17">
+        <v>10530.98</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
@@ -963,7 +971,9 @@
       <c r="J8" s="6">
         <v>13715.34</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="18">
+        <v>13726.04</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
@@ -988,7 +998,9 @@
       <c r="J9" s="6">
         <v>10530.98</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="18">
+        <v>5225.13</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
@@ -1017,7 +1029,9 @@
         <v>33125.85</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="17">
+        <v>32119.47</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
@@ -1065,7 +1079,9 @@
       <c r="J12" s="6">
         <v>4633.09</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="17">
+        <v>4683.1000000000004</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
@@ -1109,9 +1125,12 @@
       <c r="J14" s="6">
         <v>15545.73</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="17">
+        <v>15545.73</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1136,9 +1155,12 @@
       <c r="J15" s="6">
         <v>32646.02</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="17">
+        <v>32595.88</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1167,9 +1189,12 @@
       <c r="J16" s="6">
         <v>16548.68</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="18">
+        <v>16302.77</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1199,9 +1224,12 @@
       <c r="J17" s="6">
         <v>4968.1400000000003</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="18">
+        <v>4946.8500000000004</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1230,9 +1258,12 @@
       <c r="J18" s="6">
         <v>18454.28</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="17">
+        <v>18554.580000000002</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1258,6 +1289,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1280,9 +1312,12 @@
       <c r="J20" s="6">
         <v>2722.81</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="18">
+        <v>2670.93</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1303,9 +1338,12 @@
       <c r="J21" s="6">
         <v>7098.46</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="17">
+        <v>7073.46</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1385,7 +1423,9 @@
       <c r="J28" s="3">
         <v>779077.5</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3">
+        <v>717688.51</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1424,7 +1464,9 @@
       <c r="J29" s="3">
         <v>210295.97</v>
       </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="3">
+        <v>270295.53000000003</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1470,7 +1512,10 @@
         <f>SUM(J28:J29)</f>
         <v>989373.47</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="3">
+        <f>SUM(K28:K29)</f>
+        <v>987984.04</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1514,11 +1559,11 @@
       </c>
       <c r="K31" s="15">
         <f t="shared" si="1"/>
+        <v>-0.14043534035736119</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="L31" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="M31" s="16" t="e">
         <f t="shared" si="1"/>
@@ -1552,6 +1597,9 @@
       </c>
       <c r="J32" s="23">
         <v>-2.06E-2</v>
+      </c>
+      <c r="K32" s="23">
+        <v>-9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF22EBF9-608D-46C2-B81C-2002677FD396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F45E70-66F3-43E9-BF95-156B944CD5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Stocks</t>
   </si>
@@ -266,6 +266,22 @@
     </r>
   </si>
   <si>
+    <t>Action Legends</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Bought</t>
+  </si>
+  <si>
+    <t>Gain (%)</t>
+  </si>
+  <si>
+    <t>Baseline
+(PSEI)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">9 
 </t>
@@ -279,7 +295,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(April 6, 2023)</t>
+      <t>(April 11, 2023)</t>
     </r>
   </si>
   <si>
@@ -296,24 +312,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(April 7, 2023)</t>
-    </r>
-  </si>
-  <si>
-    <t>Action Legends</t>
-  </si>
-  <si>
-    <t>Sold</t>
-  </si>
-  <si>
-    <t>Bought</t>
-  </si>
-  <si>
-    <t>Gain (%)</t>
-  </si>
-  <si>
-    <t>Baseline
-(PSEI)</t>
+      <t>(April 12, 2023)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="AV56" sqref="AV56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -808,10 +808,10 @@
         <v>33</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -837,8 +837,13 @@
       <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="17">
+        <v>10179.94</v>
+      </c>
       <c r="M3" s="3"/>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -866,8 +871,13 @@
       <c r="K4" s="18">
         <v>2497.0100000000002</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="17">
+        <v>24572.28</v>
+      </c>
       <c r="M4" s="3"/>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -893,8 +903,13 @@
       <c r="K5" s="18">
         <v>6149.41</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="17">
+        <v>6523.38</v>
+      </c>
       <c r="M5" s="3"/>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -922,8 +937,13 @@
       <c r="K6" s="18">
         <v>8195.98</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="17">
+        <v>8294.4</v>
+      </c>
       <c r="M6" s="3"/>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -941,8 +961,13 @@
       <c r="K7" s="17">
         <v>10530.98</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="17">
+        <v>10530.98</v>
+      </c>
       <c r="M7" s="3"/>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -974,8 +999,13 @@
       <c r="K8" s="18">
         <v>13726.04</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="17">
+        <v>13690.27</v>
+      </c>
       <c r="M8" s="3"/>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1001,8 +1031,13 @@
       <c r="K9" s="18">
         <v>5225.13</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="17">
+        <v>5298.19</v>
+      </c>
       <c r="M9" s="3"/>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1032,8 +1067,13 @@
       <c r="K10" s="17">
         <v>32119.47</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="18">
+        <v>30995.09</v>
+      </c>
       <c r="M10" s="3"/>
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1057,8 +1097,10 @@
       <c r="I11" s="7"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1084,6 +1126,9 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1099,8 +1144,13 @@
       <c r="I13" s="7"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="17">
+        <v>7473.52</v>
+      </c>
       <c r="M13" s="3"/>
+      <c r="N13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1128,9 +1178,13 @@
       <c r="K14" s="17">
         <v>15545.73</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="17">
+        <v>15846.61</v>
+      </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1158,9 +1212,13 @@
       <c r="K15" s="17">
         <v>32595.88</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="17">
+        <v>32445.43</v>
+      </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1192,9 +1250,13 @@
       <c r="K16" s="18">
         <v>16302.77</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="17">
+        <v>16222.72</v>
+      </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1227,9 +1289,13 @@
       <c r="K17" s="18">
         <v>4946.8500000000004</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="18">
+        <v>4936.91</v>
+      </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1263,7 +1329,9 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1287,9 +1355,13 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="17">
+        <v>18805.310000000001</v>
+      </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1315,9 +1387,13 @@
       <c r="K20" s="18">
         <v>2670.93</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="17">
+        <v>2697.8</v>
+      </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1341,9 +1417,10 @@
       <c r="K21" s="17">
         <v>7073.46</v>
       </c>
-      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1426,7 +1503,9 @@
       <c r="K28" s="3">
         <v>717688.51</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3">
+        <v>581039.69999999995</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1467,7 +1546,9 @@
       <c r="K29" s="3">
         <v>270295.53000000003</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3">
+        <v>405709.37</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -1516,7 +1597,10 @@
         <f>SUM(K28:K29)</f>
         <v>987984.04</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3">
+        <f>SUM(L28:L29)</f>
+        <v>986749.07</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -1527,7 +1611,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31" s="21">
         <f>((D30-C30)/(C30))*100</f>
@@ -1563,19 +1647,19 @@
       </c>
       <c r="L31" s="15">
         <f t="shared" si="1"/>
+        <v>-0.12499898277709914</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="M31" s="16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="23">
         <v>-1.29E-2</v>
@@ -1601,10 +1685,13 @@
       <c r="K32" s="23">
         <v>-9.2999999999999992E-3</v>
       </c>
+      <c r="L32" s="24">
+        <v>-1.32E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E33" s="20">
         <v>165565.73000000001</v>
@@ -1612,7 +1699,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">

--- a/testers/5-real_world_application/VirtualTradingLogs.xlsx
+++ b/testers/5-real_world_application/VirtualTradingLogs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ACD\SP\OLARTE_SP\testers\5-real_world_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F45E70-66F3-43E9-BF95-156B944CD5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE2629-DA19-4F60-A5DC-7ED9B99E7022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="3" r:id="rId1"/>
+    <sheet name="Points" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Stocks</t>
   </si>
@@ -68,13 +69,7 @@
     <t>RRHI</t>
   </si>
   <si>
-    <t>Total Cash</t>
-  </si>
-  <si>
     <t>Total Equity</t>
-  </si>
-  <si>
-    <t>Market Value</t>
   </si>
   <si>
     <t>Based from the calculations provided by the Virutal Trading Platform</t>
@@ -315,18 +310,25 @@
       <t>(April 12, 2023)</t>
     </r>
   </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>CUMMULATIVE</t>
+  </si>
+  <si>
+    <t>Profit (Realized)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,12 +340,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,9 +415,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -434,27 +430,41 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,11 +745,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562E2869-06CD-4D91-B49E-C7BA5169BDF6}">
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="AV56" sqref="AV56"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="15" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10380.530000000001</v>
+      </c>
+      <c r="D3" s="15">
+        <v>9910.5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>10079.64</v>
+      </c>
+      <c r="F3" s="15">
+        <v>9960.0499999999993</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="14">
+        <v>10179.94</v>
+      </c>
+      <c r="M3" s="14">
+        <v>10129.790000000001</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2645.29</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2572.7800000000002</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2501.9699999999998</v>
+      </c>
+      <c r="F4" s="15">
+        <v>2586.4499999999998</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6">
+        <v>2585.2800000000002</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2497</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2472.7600000000002</v>
+      </c>
+      <c r="M4" s="15">
+        <v>2429.92</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="14">
+        <v>6348.35</v>
+      </c>
+      <c r="E5" s="14">
+        <v>6298.34</v>
+      </c>
+      <c r="F5" s="15">
+        <v>6363.08</v>
+      </c>
+      <c r="G5" s="15">
+        <v>6363.08</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6">
+        <v>6273.33</v>
+      </c>
+      <c r="K5" s="15">
+        <v>6139.47</v>
+      </c>
+      <c r="L5" s="14">
+        <v>6523.37</v>
+      </c>
+      <c r="M5" s="14">
+        <v>6533.37</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8174.04</v>
+      </c>
+      <c r="D6" s="15">
+        <v>8146.43</v>
+      </c>
+      <c r="E6" s="14">
+        <v>8244.24</v>
+      </c>
+      <c r="F6" s="15">
+        <v>8106.78</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6">
+        <v>8274.33</v>
+      </c>
+      <c r="K6" s="15">
+        <v>8195.98</v>
+      </c>
+      <c r="L6" s="14">
+        <v>8294.39</v>
+      </c>
+      <c r="M6" s="15">
+        <v>8195.98</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="14">
+        <v>10530.97</v>
+      </c>
+      <c r="L7" s="14">
+        <v>10530.97</v>
+      </c>
+      <c r="M7" s="15">
+        <v>10455.57</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>14292.03</v>
+      </c>
+      <c r="D8" s="14">
+        <v>14292.04</v>
+      </c>
+      <c r="E8" s="16">
+        <v>14097.68</v>
+      </c>
+      <c r="F8" s="15">
+        <v>14320.37</v>
+      </c>
+      <c r="G8" s="14">
+        <v>14292.03</v>
+      </c>
+      <c r="H8" s="15">
+        <v>13131.41</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6">
+        <v>13715.34</v>
+      </c>
+      <c r="K8" s="15">
+        <v>13726.04</v>
+      </c>
+      <c r="L8" s="14">
+        <v>13690.26</v>
+      </c>
+      <c r="M8" s="15">
+        <v>13403.95</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="14">
+        <v>5303.19</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5273.18</v>
+      </c>
+      <c r="F9" s="15">
+        <v>5195.3100000000004</v>
+      </c>
+      <c r="G9" s="15">
+        <v>5195.3100000000004</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6">
+        <v>5373.2</v>
+      </c>
+      <c r="K9" s="15">
+        <v>5225.12</v>
+      </c>
+      <c r="L9" s="14">
+        <v>2598.19</v>
+      </c>
+      <c r="M9" s="15">
+        <v>5220.1499999999996</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>33849.56</v>
+      </c>
+      <c r="D10" s="15">
+        <v>32977.19</v>
+      </c>
+      <c r="E10" s="14">
+        <v>34300.89</v>
+      </c>
+      <c r="F10" s="15">
+        <v>34191.22</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="14">
+        <v>35604.720000000001</v>
+      </c>
+      <c r="I10" s="16">
+        <v>33125.839999999997</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="14">
+        <v>32119.47</v>
+      </c>
+      <c r="L10" s="15">
+        <v>30995.08</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>46386.43</v>
+      </c>
+      <c r="D11" s="14">
+        <v>45659.3</v>
+      </c>
+      <c r="E11" s="16">
+        <v>45836.06</v>
+      </c>
+      <c r="F11" s="15">
+        <v>45687.4</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="M11" s="14">
+        <v>45082.6</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="14">
+        <v>4573.08</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4574.1499999999996</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6">
+        <v>4633.09</v>
+      </c>
+      <c r="K12" s="14">
+        <v>4683.09</v>
+      </c>
+      <c r="L12" s="15">
+        <v>4559.24</v>
+      </c>
+      <c r="M12" s="14">
+        <v>4578.08</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="14">
+        <v>7473.51</v>
+      </c>
+      <c r="M13" s="15">
+        <v>7302.27</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="14">
+        <v>14943.96</v>
+      </c>
+      <c r="E14" s="14">
+        <v>15365.19</v>
+      </c>
+      <c r="F14" s="15">
+        <v>15014.4</v>
+      </c>
+      <c r="G14" s="15">
+        <v>15361.27</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6">
+        <v>15525.66</v>
+      </c>
+      <c r="J14" s="6">
+        <v>15545.72</v>
+      </c>
+      <c r="K14" s="6">
+        <v>15545.72</v>
+      </c>
+      <c r="L14" s="14">
+        <v>15846.61</v>
+      </c>
+      <c r="M14" s="14">
+        <v>15946.9</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6">
+        <v>33398.230000000003</v>
+      </c>
+      <c r="D15" s="14">
+        <v>33348.089999999997</v>
+      </c>
+      <c r="E15" s="16">
+        <v>32977.18</v>
+      </c>
+      <c r="F15" s="15">
+        <v>32655.09</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6">
+        <v>32646.02</v>
+      </c>
+      <c r="K15" s="14">
+        <v>32595.87</v>
+      </c>
+      <c r="L15" s="14">
+        <v>32445.43</v>
+      </c>
+      <c r="M15" s="15">
+        <v>32110.02</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>16398.23</v>
+      </c>
+      <c r="D16" s="15">
+        <v>16203.67</v>
+      </c>
+      <c r="E16" s="14">
+        <v>16548.669999999998</v>
+      </c>
+      <c r="F16" s="15">
+        <v>16352.32</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="14">
+        <v>15696.16</v>
+      </c>
+      <c r="I16" s="16">
+        <v>16203.66</v>
+      </c>
+      <c r="J16" s="6">
+        <v>16548.669999999998</v>
+      </c>
+      <c r="K16" s="11">
+        <v>16302.77</v>
+      </c>
+      <c r="L16" s="14">
+        <v>16222.71</v>
+      </c>
+      <c r="M16" s="14">
+        <v>16297.93</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5018.1400000000003</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4966.7299999999996</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="14">
+        <v>4983.1400000000003</v>
+      </c>
+      <c r="G17" s="15">
+        <v>4922</v>
+      </c>
+      <c r="H17" s="14">
+        <v>4973.1400000000003</v>
+      </c>
+      <c r="I17" s="20">
+        <v>4897.1499999999996</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4968.1400000000003</v>
+      </c>
+      <c r="K17" s="15">
+        <v>4946.8500000000004</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="14">
+        <v>5018.1400000000003</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6">
+        <v>18203.54</v>
+      </c>
+      <c r="D18" s="15">
+        <v>18185.77</v>
+      </c>
+      <c r="E18" s="14">
+        <v>19156.34</v>
+      </c>
+      <c r="F18" s="15">
+        <v>19077.71</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="14">
+        <v>18454.28</v>
+      </c>
+      <c r="I18" s="16">
+        <v>18383.97</v>
+      </c>
+      <c r="J18" s="6">
+        <v>18454.28</v>
+      </c>
+      <c r="K18" s="14">
+        <v>18554.57</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>18429.2</v>
+      </c>
+      <c r="D19" s="15">
+        <v>18379.060000000001</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="14">
+        <v>18654.87</v>
+      </c>
+      <c r="I19" s="16">
+        <v>18284.87</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="14">
+        <v>18805.310000000001</v>
+      </c>
+      <c r="M19" s="14">
+        <v>18554.57</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="14">
+        <v>2717.8</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2660.99</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="6">
+        <v>2740.3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2722.8</v>
+      </c>
+      <c r="K20" s="15">
+        <v>2670.93</v>
+      </c>
+      <c r="L20" s="14">
+        <v>2697.8</v>
+      </c>
+      <c r="M20" s="14">
+        <v>2700.3</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7363.5</v>
+      </c>
+      <c r="D21" s="15">
+        <v>7262.52</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6">
+        <v>7098.46</v>
+      </c>
+      <c r="K21" s="14">
+        <v>7073.45</v>
+      </c>
+      <c r="L21" s="15">
+        <v>7033.93</v>
+      </c>
+      <c r="M21" s="14">
+        <v>7178.47</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="N27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="C28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="28">
+        <f>SUM(D3,D6,D10,D16,D17,D19,D18,D21)-SUM(C3,C6,C10,C16,C17,C18,C19,C21)</f>
+        <v>-1784.8699999999953</v>
+      </c>
+      <c r="E28" s="28">
+        <f>SUM(E4,E8,E11,E12,E15)-SUM(C4,C8,C11,D12,D15)</f>
+        <v>-1257.8799999999901</v>
+      </c>
+      <c r="F28" s="28">
+        <f>SUM(F3,F4,F5,F6,F8,F9,F10,F11,F14,F15,F16,F18)-SUM(E3,D4,E5,E6,D8,E9,E10,D11,D14,C15,E18)</f>
+        <v>15291.239999999991</v>
+      </c>
+      <c r="G28" s="28">
+        <f>SUM(G5,G9,G14,G17,G20)-SUM(E5,E9,E14,F17,F20)</f>
+        <v>-135</v>
+      </c>
+      <c r="H28" s="28">
+        <f>H8-G8</f>
+        <v>-1160.6200000000008</v>
+      </c>
+      <c r="I28" s="28">
+        <f>SUM(I10,I16,I17,I18,I19)-SUM(H10,H16,H17,H18,H19)</f>
+        <v>-2487.6800000000076</v>
+      </c>
+      <c r="J28" s="28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="28">
+        <f>SUM(K4,K5,K6,K8,K9,K16,K17,K20) -SUM(J4,J5,J6,J8,J9,J16,J17,I20)</f>
+        <v>-774.43000000000029</v>
+      </c>
+      <c r="L28" s="28">
+        <f>SUM(L10,L12,L21)-SUM(K10,J12,J21)</f>
+        <v>-1262.7699999999968</v>
+      </c>
+      <c r="M28" s="28">
+        <f>SUM(M4,M6,M7,M8,M9,M13,M15)-SUM(L4,L6,K7,L8,L9,L13,J15)</f>
+        <v>1411.7599999999948</v>
+      </c>
+      <c r="N28" s="3">
+        <f>SUM(D28:M28)</f>
+        <v>7839.7499999999945</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C29" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="28">
+        <f>500000+D28</f>
+        <v>498215.13</v>
+      </c>
+      <c r="E29" s="28">
+        <f t="shared" ref="E29:M29" si="0">D29+E28</f>
+        <v>496957.25</v>
+      </c>
+      <c r="F29" s="28">
+        <f t="shared" si="0"/>
+        <v>512248.49</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="0"/>
+        <v>512113.49</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="0"/>
+        <v>510952.87</v>
+      </c>
+      <c r="I29" s="28">
+        <f>H29+I28</f>
+        <v>508465.19</v>
+      </c>
+      <c r="J29" s="28">
+        <f>I29+J28</f>
+        <v>508465.19</v>
+      </c>
+      <c r="K29" s="28">
+        <f t="shared" si="0"/>
+        <v>507690.76</v>
+      </c>
+      <c r="L29" s="28">
+        <f t="shared" si="0"/>
+        <v>506427.99</v>
+      </c>
+      <c r="M29" s="28">
+        <f t="shared" si="0"/>
+        <v>507839.75</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="30">
+        <f>((D29-500000)/D29)</f>
+        <v>-3.5825286959872038E-3</v>
+      </c>
+      <c r="E30" s="30">
+        <f t="shared" ref="E30:M30" si="1">((E29-D29)/E29)</f>
+        <v>-2.5311633948393039E-3</v>
+      </c>
+      <c r="F30" s="30">
+        <f t="shared" si="1"/>
+        <v>2.9851215374007235E-2</v>
+      </c>
+      <c r="G30" s="30">
+        <f t="shared" si="1"/>
+        <v>-2.6361344240316732E-4</v>
+      </c>
+      <c r="H30" s="30">
+        <f t="shared" si="1"/>
+        <v>-2.2714815164850632E-3</v>
+      </c>
+      <c r="I30" s="30">
+        <f t="shared" si="1"/>
+        <v>-4.8925276477628545E-3</v>
+      </c>
+      <c r="J30" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="30">
+        <f t="shared" si="1"/>
+        <v>-1.5253970743922796E-3</v>
+      </c>
+      <c r="L30" s="30">
+        <f t="shared" si="1"/>
+        <v>-2.4934838218559339E-3</v>
+      </c>
+      <c r="M30" s="30">
+        <f t="shared" si="1"/>
+        <v>2.7799320553383413E-3</v>
+      </c>
+      <c r="N30" s="19">
+        <f>SUM(D30:M30)</f>
+        <v>1.5070951835619767E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-2141.04</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-1760.83</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-1275.1600000000001</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-1631.29</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-5571.1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>-1182.68</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-3378.45</v>
+      </c>
+      <c r="K31" s="3">
+        <v>-1517.36</v>
+      </c>
+      <c r="L31" s="3">
+        <v>-2150.34</v>
+      </c>
+      <c r="M31" s="3">
+        <v>-2180.65</v>
+      </c>
+      <c r="N31" s="3">
+        <f>SUM(D31:M31)</f>
+        <v>-22788.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="31"/>
+      <c r="D32" s="29">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="E32" s="29">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="F32" s="29">
+        <v>-7.7000000000000002E-3</v>
+      </c>
+      <c r="G32" s="29">
+        <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="H32" s="30">
+        <v>-3.3399999999999999E-2</v>
+      </c>
+      <c r="I32" s="30">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="J32" s="29">
+        <v>-2.06E-2</v>
+      </c>
+      <c r="K32" s="29">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="L32" s="30">
+        <v>-1.32E-2</v>
+      </c>
+      <c r="M32" s="30">
+        <v>-1.34E-2</v>
+      </c>
+      <c r="N32" s="18">
+        <f>SUM(D32:M32)</f>
+        <v>-0.1381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C31:C32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90722A7-0347-44C2-8D9B-6D7836DB6116}">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,63 +1766,64 @@
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -821,133 +1833,131 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="6">
-        <v>10380.530000000001</v>
-      </c>
-      <c r="D3" s="18">
-        <v>9910.5</v>
-      </c>
-      <c r="E3" s="17">
-        <v>10079.65</v>
-      </c>
-      <c r="F3" s="18">
-        <v>9960.0499999999993</v>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2.0099999999999998</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="7"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="17">
-        <v>10179.94</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" t="s">
-        <v>3</v>
+      <c r="L3" s="14">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M3" s="14">
+        <v>2.02</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="6">
-        <v>2645.29</v>
-      </c>
-      <c r="D4" s="17">
-        <v>2572.7800000000002</v>
-      </c>
-      <c r="E4" s="19">
-        <v>2501.98</v>
-      </c>
-      <c r="F4" s="18">
-        <v>2586.46</v>
+        <v>52.45</v>
+      </c>
+      <c r="D4" s="14">
+        <v>51</v>
+      </c>
+      <c r="E4" s="16">
+        <v>50.8</v>
+      </c>
+      <c r="F4" s="15">
+        <v>52.5</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6">
-        <v>2585.2800000000002</v>
-      </c>
-      <c r="K4" s="18">
-        <v>2497.0100000000002</v>
-      </c>
-      <c r="L4" s="17">
-        <v>24572.28</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" t="s">
-        <v>19</v>
+        <v>51.25</v>
+      </c>
+      <c r="K4" s="11">
+        <v>50.7</v>
+      </c>
+      <c r="L4" s="14">
+        <v>49</v>
+      </c>
+      <c r="M4" s="15">
+        <v>49.35</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="17">
-        <v>6348.35</v>
-      </c>
-      <c r="E5" s="17">
-        <v>6298.34</v>
-      </c>
-      <c r="F5" s="18">
-        <v>6363.09</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="D5" s="14">
+        <v>126.5</v>
+      </c>
+      <c r="E5" s="14">
+        <v>125.5</v>
+      </c>
+      <c r="F5" s="15">
+        <v>128.5</v>
+      </c>
+      <c r="G5" s="15">
+        <v>128.5</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6">
-        <v>6273.34</v>
-      </c>
-      <c r="K5" s="18">
-        <v>6149.41</v>
-      </c>
-      <c r="L5" s="17">
-        <v>6523.38</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" t="s">
-        <v>20</v>
+        <v>125</v>
+      </c>
+      <c r="K5" s="15">
+        <v>124.2</v>
+      </c>
+      <c r="L5" s="14">
+        <v>130</v>
+      </c>
+      <c r="M5" s="14">
+        <v>130.19999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="6">
-        <v>8174.04</v>
-      </c>
-      <c r="D6" s="18">
-        <v>8146.43</v>
-      </c>
-      <c r="E6" s="17">
-        <v>8244.25</v>
-      </c>
-      <c r="F6" s="18">
-        <v>8106.79</v>
+        <v>16.3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="E6" s="14">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="F6" s="15">
+        <v>16.36</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="7"/>
       <c r="J6" s="6">
-        <v>8274.34</v>
-      </c>
-      <c r="K6" s="18">
-        <v>8195.98</v>
-      </c>
-      <c r="L6" s="17">
-        <v>8294.4</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" t="s">
-        <v>21</v>
+        <v>16.5</v>
+      </c>
+      <c r="K6" s="15">
+        <v>16.54</v>
+      </c>
+      <c r="L6" s="14">
+        <v>16.54</v>
+      </c>
+      <c r="M6" s="15">
+        <v>16.54</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
@@ -958,53 +1968,51 @@
       <c r="H7" s="3"/>
       <c r="I7" s="7"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="17">
-        <v>10530.98</v>
-      </c>
-      <c r="L7" s="17">
-        <v>10530.98</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" t="s">
-        <v>22</v>
+      <c r="K7" s="14">
+        <v>210</v>
+      </c>
+      <c r="L7" s="14">
+        <v>210</v>
+      </c>
+      <c r="M7" s="15">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="6">
-        <v>14292.04</v>
-      </c>
-      <c r="D8" s="17">
-        <v>14292.04</v>
-      </c>
-      <c r="E8" s="19">
-        <v>14097.69</v>
-      </c>
-      <c r="F8" s="18">
-        <v>14320.67</v>
-      </c>
-      <c r="G8" s="17">
-        <v>14292.04</v>
-      </c>
-      <c r="H8" s="18">
-        <v>13131.41</v>
+        <v>28.5</v>
+      </c>
+      <c r="D8" s="14">
+        <v>28.5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>28.45</v>
+      </c>
+      <c r="F8" s="15">
+        <v>28.9</v>
+      </c>
+      <c r="G8" s="14">
+        <v>28.5</v>
+      </c>
+      <c r="H8" s="15">
+        <v>26.5</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="6">
-        <v>13715.34</v>
-      </c>
-      <c r="K8" s="18">
-        <v>13726.04</v>
-      </c>
-      <c r="L8" s="17">
-        <v>13690.27</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" t="s">
-        <v>14</v>
+        <v>27.35</v>
+      </c>
+      <c r="K8" s="15">
+        <v>27.7</v>
+      </c>
+      <c r="L8" s="14">
+        <v>27.3</v>
+      </c>
+      <c r="M8" s="15">
+        <v>27.05</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1013,121 +2021,119 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="17">
-        <v>5303.19</v>
-      </c>
-      <c r="E9" s="17">
-        <v>5273.19</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5195.3100000000004</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="D9" s="14">
+        <v>105.6</v>
+      </c>
+      <c r="E9" s="14">
+        <v>105</v>
+      </c>
+      <c r="F9" s="15">
+        <v>105</v>
+      </c>
+      <c r="G9" s="15">
+        <v>105</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="7"/>
       <c r="J9" s="6">
-        <v>10530.98</v>
-      </c>
-      <c r="K9" s="18">
-        <v>5225.13</v>
-      </c>
-      <c r="L9" s="17">
-        <v>5298.19</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" t="s">
-        <v>6</v>
+        <v>107</v>
+      </c>
+      <c r="K9" s="15">
+        <v>105.6</v>
+      </c>
+      <c r="L9" s="14">
+        <v>105.5</v>
+      </c>
+      <c r="M9" s="15">
+        <v>105.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="6">
-        <v>33849.56</v>
-      </c>
-      <c r="D10" s="18">
-        <v>32977.19</v>
-      </c>
-      <c r="E10" s="17">
-        <v>34300.89</v>
-      </c>
-      <c r="F10" s="18">
-        <v>34191.230000000003</v>
+        <v>1350</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1331</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1368</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1380</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="17">
-        <v>35604.730000000003</v>
-      </c>
-      <c r="I10" s="19">
-        <v>33125.85</v>
+      <c r="H10" s="14">
+        <v>1420</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1337</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="17">
-        <v>32119.47</v>
-      </c>
-      <c r="L10" s="18">
-        <v>30995.09</v>
+      <c r="K10" s="14">
+        <v>1281</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1251</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="6">
-        <v>46386.44</v>
-      </c>
-      <c r="D11" s="17">
-        <v>45659.3</v>
-      </c>
-      <c r="E11" s="19">
-        <v>45836.06</v>
-      </c>
-      <c r="F11" s="18">
-        <v>45687.41</v>
+        <v>1850</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1821</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1850</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1844</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="7"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" t="s">
-        <v>18</v>
+      <c r="M11" s="14">
+        <v>1798</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="17">
-        <v>4573.08</v>
-      </c>
-      <c r="E12" s="19">
-        <v>4574.16</v>
+      <c r="D12" s="14">
+        <v>9.1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>9.25</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6">
-        <v>4633.09</v>
-      </c>
-      <c r="K12" s="17">
-        <v>4683.1000000000004</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" t="s">
-        <v>15</v>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="K12" s="14">
+        <v>9.32</v>
+      </c>
+      <c r="L12" s="15">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="M12" s="14">
+        <v>9.11</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,47 +2150,48 @@
       <c r="I13" s="7"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="17">
-        <v>7473.52</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" t="s">
-        <v>5</v>
+      <c r="L13" s="14">
+        <v>14.9</v>
+      </c>
+      <c r="M13" s="15">
+        <v>14.74</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17">
-        <v>14943.96</v>
-      </c>
-      <c r="E14" s="17">
-        <v>15365.19</v>
-      </c>
-      <c r="F14" s="18">
-        <v>15014.41</v>
-      </c>
-      <c r="G14" s="3"/>
+      <c r="D14" s="14">
+        <v>298</v>
+      </c>
+      <c r="E14" s="14">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="F14" s="15">
+        <v>303</v>
+      </c>
+      <c r="G14" s="15">
+        <v>310</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="6">
-        <v>15525.67</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="J14" s="6">
-        <v>15545.73</v>
-      </c>
-      <c r="K14" s="17">
-        <v>15545.73</v>
-      </c>
-      <c r="L14" s="17">
-        <v>15846.61</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="K14" s="14">
+        <v>310</v>
+      </c>
+      <c r="L14" s="14">
+        <v>316</v>
+      </c>
+      <c r="M14" s="14">
+        <v>318</v>
+      </c>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1192,33 +2199,33 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="6">
-        <v>33398.239999999998</v>
-      </c>
-      <c r="D15" s="17">
-        <v>33348.089999999997</v>
-      </c>
-      <c r="E15" s="19">
-        <v>32977.19</v>
-      </c>
-      <c r="F15" s="18">
-        <v>32655.1</v>
+        <v>666</v>
+      </c>
+      <c r="D15" s="14">
+        <v>665</v>
+      </c>
+      <c r="E15" s="16">
+        <v>665.5</v>
+      </c>
+      <c r="F15" s="15">
+        <v>659</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6">
-        <v>32646.02</v>
-      </c>
-      <c r="K15" s="17">
-        <v>32595.88</v>
-      </c>
-      <c r="L15" s="17">
-        <v>32445.43</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="K15" s="14">
+        <v>650</v>
+      </c>
+      <c r="L15" s="14">
+        <v>647</v>
+      </c>
+      <c r="M15" s="15">
+        <v>648</v>
+      </c>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1226,37 +2233,37 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="6">
-        <v>16398.23</v>
-      </c>
-      <c r="D16" s="18">
-        <v>16203.67</v>
-      </c>
-      <c r="E16" s="17">
-        <v>16548.68</v>
-      </c>
-      <c r="F16" s="18">
-        <v>16352.33</v>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D16" s="15">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E16" s="14">
+        <v>33</v>
+      </c>
+      <c r="F16" s="15">
+        <v>33</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="17">
-        <v>15696.17</v>
-      </c>
-      <c r="I16" s="19">
-        <v>16203.67</v>
+      <c r="H16" s="14">
+        <v>31.3</v>
+      </c>
+      <c r="I16" s="16">
+        <v>32.700000000000003</v>
       </c>
       <c r="J16" s="6">
-        <v>16548.68</v>
-      </c>
-      <c r="K16" s="18">
-        <v>16302.77</v>
-      </c>
-      <c r="L16" s="17">
-        <v>16222.72</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K16" s="11">
+        <v>32.9</v>
+      </c>
+      <c r="L16" s="14">
+        <v>32.35</v>
+      </c>
+      <c r="M16" s="14">
+        <v>32.5</v>
+      </c>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1264,104 +2271,99 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="6">
-        <v>5018.1499999999996</v>
-      </c>
-      <c r="D17" s="18">
-        <v>4966.7299999999996</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="17">
-        <f>4983.14*2</f>
-        <v>9966.2800000000007</v>
-      </c>
-      <c r="G17" s="18">
-        <v>4922</v>
-      </c>
-      <c r="H17" s="17">
-        <v>4973.1400000000003</v>
-      </c>
-      <c r="I17" s="25">
-        <v>4897.16</v>
+        <v>9.99</v>
+      </c>
+      <c r="D17" s="15">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="14">
+        <v>9.92</v>
+      </c>
+      <c r="G17" s="15">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H17" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="I17" s="20">
+        <v>9.9</v>
       </c>
       <c r="J17" s="6">
-        <v>4968.1400000000003</v>
-      </c>
-      <c r="K17" s="18">
-        <v>4946.8500000000004</v>
-      </c>
-      <c r="L17" s="18">
-        <v>4936.91</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>9.89</v>
+      </c>
+      <c r="K17" s="15">
+        <v>10</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="14">
+        <v>9.99</v>
+      </c>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="6">
-        <v>18203.54</v>
-      </c>
-      <c r="D18" s="18">
-        <v>18185.77</v>
-      </c>
-      <c r="E18" s="17">
-        <v>19156.349999999999</v>
-      </c>
-      <c r="F18" s="18">
-        <v>16352.33</v>
+        <v>3.63</v>
+      </c>
+      <c r="D18" s="15">
+        <v>3.67</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3.82</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3.85</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="17">
-        <v>18454.28</v>
-      </c>
-      <c r="I18" s="19">
-        <v>18383.98</v>
+      <c r="H18" s="14">
+        <v>3.68</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3.71</v>
       </c>
       <c r="J18" s="6">
-        <v>18454.28</v>
-      </c>
-      <c r="K18" s="17">
-        <v>18554.580000000002</v>
+        <v>3.68</v>
+      </c>
+      <c r="K18" s="14">
+        <v>3.7</v>
       </c>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="6">
-        <v>18429.21</v>
-      </c>
-      <c r="D19" s="18">
-        <v>18379.060000000001</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>36.75</v>
+      </c>
+      <c r="D19" s="15">
+        <v>36.65</v>
+      </c>
+      <c r="E19" s="25"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="17">
-        <v>18654.87</v>
-      </c>
-      <c r="I19" s="19">
-        <v>18284.87</v>
+      <c r="H19" s="14">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I19" s="16">
+        <v>36.9</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="17">
-        <v>18805.310000000001</v>
-      </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="L19" s="14">
+        <v>37.5</v>
+      </c>
+      <c r="M19" s="14">
+        <v>37</v>
+      </c>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1371,29 +2373,29 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="17">
-        <v>2717.8</v>
-      </c>
-      <c r="G20" s="18">
-        <v>2661</v>
+      <c r="F20" s="14">
+        <v>53.9</v>
+      </c>
+      <c r="G20" s="15">
+        <v>54</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="6">
-        <v>2740.31</v>
+        <v>54.35</v>
       </c>
       <c r="J20" s="6">
-        <v>2722.81</v>
-      </c>
-      <c r="K20" s="18">
-        <v>2670.93</v>
-      </c>
-      <c r="L20" s="17">
-        <v>2697.8</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K20" s="15">
+        <v>54.2</v>
+      </c>
+      <c r="L20" s="14">
+        <v>53.5</v>
+      </c>
+      <c r="M20" s="14">
+        <v>53.55</v>
+      </c>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1401,26 +2403,29 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="6">
-        <v>7363.5</v>
-      </c>
-      <c r="D21" s="18">
-        <v>7262.52</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>146.80000000000001</v>
+      </c>
+      <c r="D21" s="15">
+        <v>146.6</v>
+      </c>
+      <c r="E21" s="24"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6">
-        <v>7098.46</v>
-      </c>
-      <c r="K21" s="17">
-        <v>7073.46</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>141.5</v>
+      </c>
+      <c r="K21" s="14">
+        <v>141</v>
+      </c>
+      <c r="L21" s="11">
+        <v>142</v>
+      </c>
+      <c r="M21" s="14">
+        <v>143.1</v>
+      </c>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1465,253 +2470,134 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3"/>
+      <c r="N27" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3">
-        <v>785461.23</v>
-      </c>
-      <c r="D28" s="3">
-        <v>737694.19</v>
-      </c>
-      <c r="E28" s="3">
-        <v>722414.73</v>
-      </c>
-      <c r="F28" s="3">
-        <v>937625.16</v>
-      </c>
-      <c r="G28" s="3">
-        <v>930916.12</v>
-      </c>
-      <c r="H28" s="3">
-        <v>850664.35</v>
-      </c>
-      <c r="I28" s="3">
-        <v>923293.89</v>
-      </c>
-      <c r="J28" s="3">
-        <v>779077.5</v>
-      </c>
-      <c r="K28" s="3">
-        <v>717688.51</v>
-      </c>
-      <c r="L28" s="3">
-        <v>581039.69999999995</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="C28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="28">
+        <f>SUM(D3,D6,D10,D16,D17,D19,D18,D21)-SUM(C3,C6,C10,C16,C17,C18,C19,C21)</f>
+        <v>-19.139999999999873</v>
+      </c>
+      <c r="E28" s="28">
+        <f>SUM(E4,E8,E11,E12,E15)-SUM(C4,C8,C11,D12,D15)</f>
+        <v>-1.0500000000001819</v>
+      </c>
+      <c r="F28" s="28">
+        <f>SUM(F3,F4,F5,F6,F8,F9,F10,F11,F14,F15,F16,F18)-SUM(E3,D4,E5,E6,D8,E9,E10,D11,D14,C15,E18)</f>
+        <v>70.850000000001273</v>
+      </c>
+      <c r="G28" s="28">
+        <f>SUM(G5,G9,G14,G17,G20)-SUM(E5,E9,E14,F17,F20)</f>
+        <v>6.7300000000001319</v>
+      </c>
+      <c r="H28" s="28">
+        <f>H8-G8</f>
+        <v>-2</v>
+      </c>
+      <c r="I28" s="28">
+        <f>SUM(I10,I16,I17,I18,I19)-SUM(H10,H16,H17,H18,H19)</f>
+        <v>-81.869999999999891</v>
+      </c>
+      <c r="J28" s="28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="28">
+        <f>SUM(K4,K5,K6,K8,K9,K16,K17,K20) -SUM(J4,J5,J6,J8,J9,J16,J17,I20)</f>
+        <v>-2.5000000000000568</v>
+      </c>
+      <c r="L28" s="28">
+        <f>SUM(L10,L12,L21)-SUM(K10,J12,J21)</f>
+        <v>-29.5</v>
+      </c>
+      <c r="M28" s="28">
+        <f>SUM(M4,M6,M7,M8,M9,M13,M15)-SUM(L4,L6,K7,L8,L9,L13,J15)</f>
+        <v>-2.0599999999999454</v>
+      </c>
+      <c r="N28" s="28">
+        <f>SUM(D28:M28)</f>
+        <v>-60.539999999998543</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3">
-        <v>211942.93</v>
-      </c>
-      <c r="D29" s="3">
-        <v>256508.16</v>
-      </c>
-      <c r="E29" s="3">
-        <v>272672.12</v>
-      </c>
-      <c r="F29" s="3">
-        <v>57444.03</v>
-      </c>
-      <c r="G29" s="3">
-        <v>64521.55</v>
-      </c>
-      <c r="H29" s="3">
-        <v>142674.59</v>
-      </c>
-      <c r="I29" s="3">
-        <v>68225.960000000006</v>
-      </c>
-      <c r="J29" s="3">
-        <v>210295.97</v>
-      </c>
-      <c r="K29" s="3">
-        <v>270295.53000000003</v>
-      </c>
-      <c r="L29" s="3">
-        <v>405709.37</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="28">
+        <v>-7.14</v>
+      </c>
+      <c r="E29" s="28">
+        <v>-8.1199999999999992</v>
+      </c>
+      <c r="F29" s="28">
+        <v>27.82</v>
+      </c>
+      <c r="G29" s="28">
+        <v>13.78</v>
+      </c>
+      <c r="H29" s="28">
+        <v>-145.07</v>
+      </c>
+      <c r="I29" s="28">
+        <v>30.31</v>
+      </c>
+      <c r="J29" s="28">
+        <v>-57.95</v>
+      </c>
+      <c r="K29" s="28">
+        <v>16.47</v>
+      </c>
+      <c r="L29" s="28">
+        <v>-8.8800000000000008</v>
+      </c>
+      <c r="M29" s="28">
+        <v>-10.210000000000001</v>
+      </c>
+      <c r="N29" s="28">
+        <f>SUM(D29:M29)</f>
+        <v>-148.99</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:H30" si="0">SUM(C28:C29)</f>
-        <v>997404.15999999992</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>994202.35</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="0"/>
-        <v>995086.85</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>995069.19000000006</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="0"/>
-        <v>995437.67</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="0"/>
-        <v>993338.94</v>
-      </c>
-      <c r="I30" s="3">
-        <f>SUM(I28:I29)</f>
-        <v>991519.85</v>
-      </c>
-      <c r="J30" s="3">
-        <f>SUM(J28:J29)</f>
-        <v>989373.47</v>
-      </c>
-      <c r="K30" s="3">
-        <f>SUM(K28:K29)</f>
-        <v>987984.04</v>
-      </c>
-      <c r="L30" s="3">
-        <f>SUM(L28:L29)</f>
-        <v>986749.07</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="E30" s="17">
+        <v>165565.73000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="21">
-        <f>((D30-C30)/(C30))*100</f>
-        <v>-0.32101430176508783</v>
-      </c>
-      <c r="E31" s="22">
-        <f t="shared" ref="E31:M31" si="1">((E30-D30)/(D30))*100</f>
-        <v>8.8965792527044424E-2</v>
-      </c>
-      <c r="F31" s="22">
-        <f>((F30-E30)/(E30))*100</f>
-        <v>-1.774719462920868E-3</v>
-      </c>
-      <c r="G31" s="22">
-        <f>((G30-F30)/(F30))*100</f>
-        <v>3.7030590807457457E-2</v>
-      </c>
-      <c r="H31" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.21083489838194469</v>
-      </c>
-      <c r="I31" s="15">
-        <f t="shared" si="1"/>
-        <v>-0.1831288321386019</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="1"/>
-        <v>-0.21647372969890666</v>
-      </c>
-      <c r="K31" s="15">
-        <f t="shared" si="1"/>
-        <v>-0.14043534035736119</v>
-      </c>
-      <c r="L31" s="15">
-        <f t="shared" si="1"/>
-        <v>-0.12499898277709914</v>
-      </c>
-      <c r="M31" s="16">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="23">
-        <v>-1.29E-2</v>
-      </c>
-      <c r="E32" s="23">
-        <v>-1.06E-2</v>
-      </c>
-      <c r="F32" s="23">
-        <v>-7.7000000000000002E-3</v>
-      </c>
-      <c r="G32" s="23">
-        <v>-9.7999999999999997E-3</v>
-      </c>
-      <c r="H32" s="24">
-        <v>-3.3399999999999999E-2</v>
-      </c>
-      <c r="I32" s="24">
-        <v>-7.1999999999999998E-3</v>
-      </c>
-      <c r="J32" s="23">
-        <v>-2.06E-2</v>
-      </c>
-      <c r="K32" s="23">
-        <v>-9.2999999999999992E-3</v>
-      </c>
-      <c r="L32" s="24">
-        <v>-1.32E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="20">
-        <v>165565.73000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="12"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
